--- a/DATA_goal/Junction_Flooding_296.xlsx
+++ b/DATA_goal/Junction_Flooding_296.xlsx
@@ -443,34 +443,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41728.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.79</v>
+        <v>4.18</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.75</v>
+        <v>3.38</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>49.49</v>
+        <v>4.95</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.85</v>
+        <v>2.39</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.54</v>
+        <v>2.15</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.13</v>
+        <v>1.31</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>227.27</v>
+        <v>22.73</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.87</v>
+        <v>4.29</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.32</v>
+        <v>2.83</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.96</v>
+        <v>2.5</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.35</v>
+        <v>1.33</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.95</v>
+        <v>1.69</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>43.88</v>
+        <v>4.39</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41728.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.16</v>
+        <v>1.82</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.22</v>
+        <v>3.92</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.9</v>
+        <v>3.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55.09</v>
+        <v>5.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.99</v>
+        <v>2.2</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>209</v>
+        <v>20.9</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.77</v>
+        <v>3.98</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.47</v>
+        <v>2.65</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.75</v>
+        <v>2.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>50.08</v>
+        <v>5.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41728.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>25.96</v>
+        <v>2.6</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.2</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41728.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>43</v>
+        <v>4.3</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41728.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.47</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.73</v>
-      </c>
       <c r="L6" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>110.53</v>
+        <v>11.05</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>21.55</v>
+        <v>2.15</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>6.65</v>
+        <v>0.66</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>24.84</v>
+        <v>2.48</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41728.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>46.49</v>
+        <v>4.65</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>6.65</v>
+        <v>0.66</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41728.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>29.65</v>
+        <v>2.97</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>24.29</v>
+        <v>2.43</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>38.58</v>
+        <v>3.86</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>12.55</v>
+        <v>1.25</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>155.17</v>
+        <v>15.52</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>29.75</v>
+        <v>2.97</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>19.07</v>
+        <v>1.91</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.08</v>
+        <v>0.91</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>34.78</v>
+        <v>3.48</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.55</v>
+        <v>0.55</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41728.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L9" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>4.2</v>
-      </c>
       <c r="M9" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="X9" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="S9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>49.94</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>3.7</v>
-      </c>
       <c r="Y9" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>16.97</v>
+        <v>1.7</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41728.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>4.08</v>
-      </c>
       <c r="H10" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>54.46</v>
+        <v>5.45</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_296.xlsx
+++ b/DATA_goal/Junction_Flooding_296.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,33 +443,33 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41728.34027777778</v>
+        <v>44977.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.18</v>
+        <v>4.37</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.95</v>
+        <v>5.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.73</v>
+        <v>23.87</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.83</v>
+        <v>2.97</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.39</v>
+        <v>4.65</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41728.34722222222</v>
+        <v>44977.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.92</v>
+        <v>2.89</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.19</v>
+        <v>2.35</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.06</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.51</v>
+        <v>4.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.57</v>
+        <v>1.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.01</v>
+        <v>1.48</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.9</v>
+        <v>15.29</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.98</v>
+        <v>2.95</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.97</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.03</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.67</v>
+        <v>2.01</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.86</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.78</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.01</v>
+        <v>3.84</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41728.35416666666</v>
+        <v>44977.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.28</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.66</v>
+        <v>3.42</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.57</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.14</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.42</v>
+        <v>6.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41728.36111111111</v>
+        <v>44977.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.42</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.28</v>
+        <v>1.05</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>4.3</v>
+        <v>16.44</v>
       </c>
       <c r="U5" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="V5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.27</v>
-      </c>
       <c r="AB5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.82</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.96</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.38</v>
+        <v>1.31</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.22</v>
+        <v>4.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.38</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41728.36805555555</v>
+        <v>44977.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.99</v>
+        <v>22.58</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.72</v>
+        <v>16.69</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>1.19</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.15</v>
+        <v>49.01</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.75</v>
+        <v>40.32</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.78</v>
+        <v>17.77</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.77</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.2</v>
+        <v>27.34</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.52</v>
+        <v>12.16</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.77</v>
+        <v>18.08</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.86</v>
+        <v>19.7</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.9</v>
+        <v>20.75</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.25</v>
+        <v>5.68</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.77</v>
+        <v>17.67</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.09</v>
+        <v>25.16</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.66</v>
+        <v>14.85</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.74</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.84</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>11.05</v>
+        <v>261.65</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.15</v>
+        <v>49.39</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.71</v>
+        <v>16.31</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.44</v>
+        <v>33.24</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.76</v>
+        <v>17.49</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.13</v>
+        <v>2.55</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.36</v>
+        <v>33.09</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.63</v>
+        <v>14.41</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.57</v>
+        <v>12.76</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.66</v>
+        <v>15</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.9</v>
+        <v>20.62</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.48</v>
+        <v>61.58</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.4</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41728.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41728.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41728.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41728.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41728.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>34.88</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>139.15</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>26.82</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>11.11</v>
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_296.xlsx
+++ b/DATA_goal/Junction_Flooding_296.xlsx
@@ -453,7 +453,7 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -470,7 +470,7 @@
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44977.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4</v>
+        <v>14.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.37</v>
+        <v>43.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.56</v>
+        <v>35.64</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.26</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.26</v>
+        <v>52.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.5</v>
+        <v>25.01</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.26</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.26</v>
+        <v>22.64</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.87</v>
+        <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.5</v>
+        <v>44.98</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.97</v>
+        <v>29.66</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.6</v>
+        <v>26.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.95</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.71</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.65</v>
+        <v>46.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44977.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.89</v>
+        <v>28.86</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.53</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.22</v>
+        <v>42.24</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.05</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.29</v>
+        <v>152.92</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.95</v>
+        <v>29.51</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.49</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.1</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.9</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.84</v>
+        <v>38.42</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44977.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.23</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.1</v>
+        <v>50.98</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.19</v>
+        <v>41.89</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.02</v>
+        <v>70.23999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.75</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.49</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.53</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.62</v>
+        <v>26.17</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.57</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.31</v>
+        <v>273.09</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.15</v>
+        <v>51.49</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.45</v>
+        <v>34.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.19</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.42</v>
+        <v>34.22</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.37</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.37</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.37</v>
+        <v>63.66</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44977.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.12</v>
+        <v>31.2</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.56</v>
+        <v>25.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.66</v>
+        <v>46.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.69</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.6</v>
+        <v>16.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.6</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.44</v>
+        <v>164.37</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.16</v>
+        <v>31.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.12</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.24</v>
+        <v>42.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_296.xlsx
+++ b/DATA_goal/Junction_Flooding_296.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44977.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.03</v>
+        <v>14.028</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>43.7</v>
+        <v>43.704</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>35.64</v>
+        <v>35.637</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.26</v>
+        <v>16.257</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>52.56</v>
+        <v>52.557</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.01</v>
+        <v>25.014</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.52</v>
+        <v>10.522</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.08</v>
+        <v>16.084</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.26</v>
+        <v>17.263</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.02</v>
+        <v>18.024</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.17</v>
+        <v>16.166</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.64</v>
+        <v>22.644</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.69</v>
+        <v>13.689</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.71</v>
+        <v>3.709</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.453</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>44.98</v>
+        <v>44.979</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.92</v>
+        <v>14.922</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.66</v>
+        <v>29.658</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.32</v>
+        <v>15.316</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.94</v>
+        <v>2.936</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.04</v>
+        <v>26.039</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.18</v>
+        <v>13.181</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.92</v>
+        <v>11.919</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.95</v>
+        <v>13.951</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.71</v>
+        <v>17.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.458</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>46.55</v>
+        <v>46.546</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.34</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.66</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44977.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.4</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.86</v>
+        <v>28.858</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.53</v>
+        <v>23.534</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.59</v>
+        <v>10.586</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>42.24</v>
+        <v>42.235</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.99</v>
+        <v>6.992</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.44</v>
+        <v>10.442</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.57</v>
+        <v>11.574</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.05</v>
+        <v>12.051</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.38</v>
+        <v>3.383</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.81</v>
+        <v>14.813</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.1</v>
+        <v>9.097</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.578</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.993</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.92</v>
+        <v>152.917</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.51</v>
+        <v>29.511</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.49</v>
+        <v>19.486</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.26</v>
+        <v>10.257</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.89</v>
+        <v>1.886</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.1</v>
+        <v>20.101</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.8</v>
+        <v>7.804</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.135</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.9</v>
+        <v>11.903</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.42</v>
+        <v>38.421</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.41</v>
+        <v>5.405</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44977.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.23</v>
+        <v>17.226</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.56</v>
+        <v>1.559</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>50.98</v>
+        <v>50.983</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.89</v>
+        <v>41.886</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.53</v>
+        <v>18.526</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>70.23999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>12.59</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.75</v>
+        <v>18.748</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.49</v>
+        <v>20.491</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.53</v>
+        <v>21.527</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.92</v>
+        <v>5.917</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.17</v>
+        <v>26.167</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.57</v>
+        <v>15.567</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.132</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.032</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>273.09</v>
+        <v>273.091</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>51.49</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.52</v>
+        <v>34.524</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>18.19</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.78</v>
+        <v>2.781</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.22</v>
+        <v>34.218</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.37</v>
+        <v>13.372</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.71</v>
+        <v>15.705</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.37</v>
+        <v>21.369</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>63.66</v>
+        <v>63.661</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.59</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44977.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.01</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.93000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.09</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.58</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_296.xlsx
+++ b/DATA_goal/Junction_Flooding_296.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44977.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.41</v>
+        <v>14.413</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.49</v>
+        <v>10.487</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.038</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.2</v>
+        <v>31.203</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.57</v>
+        <v>25.568</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.34</v>
+        <v>11.343</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.6</v>
+        <v>46.599</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>7.69</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.4</v>
+        <v>11.398</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>12.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.17</v>
+        <v>13.165</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.62</v>
+        <v>3.624</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>16.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.6</v>
+        <v>9.596</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.656</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.37</v>
+        <v>164.365</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.62</v>
+        <v>31.623</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>21.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.13</v>
+        <v>11.131</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.77</v>
+        <v>1.765</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.12</v>
+        <v>22.123</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.218999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.65</v>
+        <v>9.648</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.08</v>
+        <v>13.079</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>42.37</v>
+        <v>42.366</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.84</v>
+        <v>5.841</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44977.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>49.01</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>261.65</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>49.39</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.09</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>61.58</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_296.xlsx
+++ b/DATA_goal/Junction_Flooding_296.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44977.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.413</v>
+        <v>14.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.487</v>
+        <v>10.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.038</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.203</v>
+        <v>31.2</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.568</v>
+        <v>25.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.343</v>
+        <v>11.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.599</v>
+        <v>46.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.452</v>
+        <v>17.45</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>7.69</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.398</v>
+        <v>11.4</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>12.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.165</v>
+        <v>13.17</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.624</v>
+        <v>3.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.279</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>16.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.596</v>
+        <v>9.6</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.656</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.365</v>
+        <v>164.37</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.623</v>
+        <v>31.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.411</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>21.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.131</v>
+        <v>11.13</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.765</v>
+        <v>1.77</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.123</v>
+        <v>22.12</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.196</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.218999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.648</v>
+        <v>9.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.079</v>
+        <v>13.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>42.366</v>
+        <v>42.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.841</v>
+        <v>5.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.016</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44977.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.01</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.93000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.09</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.58</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>
